--- a/ExerciceCinemachineDialogue/Assets/[FFO]DialogSystem/Datas/Sentences.xlsx
+++ b/ExerciceCinemachineDialogue/Assets/[FFO]DialogSystem/Datas/Sentences.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\filin\Documents\_Intervenant\_E-Artsup\_Project\EartsupProject\Assets\[FFO]DialogSystem\Datas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tsaut\OneDrive\Documents\GitHub\ExerciceCinemachineDialogue\ExerciceCinemachineDialogue\Assets\[FFO]DialogSystem\Datas\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60895ECF-6C4C-4971-9D5B-6DBCBC66FE03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E568A37-D18B-4CAC-88EE-9CB4ACC72E3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3036" yWindow="3036" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>KEY</t>
   </si>
@@ -56,25 +56,43 @@
     <t>EN</t>
   </si>
   <si>
-    <t>0_DEFAULT_KEY_FR</t>
-  </si>
-  <si>
-    <t>0_DEFAULT_KEY_EN</t>
-  </si>
-  <si>
-    <t>0_DEFAULT_KEY_SP</t>
-  </si>
-  <si>
     <t>OTHER_KEY</t>
   </si>
   <si>
-    <t>0_OTHER_KEY_FR</t>
-  </si>
-  <si>
-    <t>0_OTHER_KEY_EN</t>
-  </si>
-  <si>
-    <t>0_OTHER_KEY_SP</t>
+    <t>Bonjour</t>
+  </si>
+  <si>
+    <t>Hello</t>
+  </si>
+  <si>
+    <t>Hola</t>
+  </si>
+  <si>
+    <t>Prépare toi à mourir !</t>
+  </si>
+  <si>
+    <t>Prepare to die !</t>
+  </si>
+  <si>
+    <t>Me llamo Antigo Montoya</t>
+  </si>
+  <si>
+    <t>Prepárate para morir !</t>
+  </si>
+  <si>
+    <t>Tu as tué mon père</t>
+  </si>
+  <si>
+    <t>Mon nom est Antigo Montoya</t>
+  </si>
+  <si>
+    <t>My name is Antigo Montoya</t>
+  </si>
+  <si>
+    <t>You killed my father</t>
+  </si>
+  <si>
+    <t>Mataste a mi padre</t>
   </si>
 </sst>
 </file>
@@ -395,22 +413,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
     <col min="2" max="2" width="24" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.85546875" customWidth="1"/>
+    <col min="3" max="3" width="25.44140625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="33.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="34.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -427,7 +445,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <f xml:space="preserve"> 0</f>
         <v>0</v>
@@ -436,31 +454,89 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <f xml:space="preserve"> 1</f>
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
